--- a/basicKnowledge/src/com/xdc/basic/api/java4android/io/Java中的IO流.xlsx
+++ b/basicKnowledge/src/com/xdc/basic/api/java4android/io/Java中的IO流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>InputStream</t>
   </si>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>BufferedInputStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要是处理纯文本数据，就优先考虑使用字符流。除此之外都使用字节流。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +690,9 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
